--- a/output/3_Regression/h19_test/h22table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h22table_rmse.xlsx
@@ -420,19 +420,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1605958415353306</v>
+        <v>0.01963093261638071</v>
       </c>
       <c r="C2">
-        <v>0.9526603072920449</v>
+        <v>7.793480153826713</v>
       </c>
       <c r="D2">
-        <v>0.7320451052893558</v>
+        <v>5.988681333848852</v>
       </c>
       <c r="E2">
-        <v>2.634384372871901</v>
+        <v>7.503595041642085</v>
       </c>
       <c r="F2">
-        <v>0.442942460205868</v>
+        <v>3.623603551526322</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,19 +440,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1819486069818282</v>
+        <v>0.04330537845084078</v>
       </c>
       <c r="C3">
-        <v>1.003446009999979</v>
+        <v>4.216002959268104</v>
       </c>
       <c r="D3">
-        <v>0.6717384743339193</v>
+        <v>2.822325633290527</v>
       </c>
       <c r="E3">
-        <v>2.35194948499602</v>
+        <v>3.621506955018647</v>
       </c>
       <c r="F3">
-        <v>0.4672080506842898</v>
+        <v>1.962986054704515</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -460,19 +460,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.2037125009254223</v>
+        <v>0.06432661435205604</v>
       </c>
       <c r="C4">
-        <v>1.021875613385451</v>
+        <v>3.236123009648129</v>
       </c>
       <c r="D4">
-        <v>0.6113848499875071</v>
+        <v>1.936161852654513</v>
       </c>
       <c r="E4">
-        <v>2.111902649602587</v>
+        <v>2.499735292981064</v>
       </c>
       <c r="F4">
-        <v>0.4557796701829948</v>
+        <v>1.443384164069165</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -480,19 +480,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2242559887143148</v>
+        <v>0.08382566770074205</v>
       </c>
       <c r="C5">
-        <v>1.027528135429373</v>
+        <v>2.748911452338489</v>
       </c>
       <c r="D5">
-        <v>0.5499276112527807</v>
+        <v>1.471202837573126</v>
       </c>
       <c r="E5">
-        <v>1.922279731504411</v>
+        <v>1.867723762063303</v>
       </c>
       <c r="F5">
-        <v>0.4506606923160523</v>
+        <v>1.205637388905871</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -500,19 +500,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.2426470922702301</v>
+        <v>0.1017552476511069</v>
       </c>
       <c r="C6">
-        <v>1.031282199768966</v>
+        <v>2.459211027051773</v>
       </c>
       <c r="D6">
-        <v>0.4950279893301636</v>
+        <v>1.180451180416699</v>
       </c>
       <c r="E6">
-        <v>1.777959274362972</v>
+        <v>1.464450084896894</v>
       </c>
       <c r="F6">
-        <v>0.4444498123788492</v>
+        <v>1.059841699796638</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -520,19 +520,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.2590941600084914</v>
+        <v>0.1180408049663676</v>
       </c>
       <c r="C7">
-        <v>1.034911961671824</v>
+        <v>2.271584351432541</v>
       </c>
       <c r="D7">
-        <v>0.4435045122807987</v>
+        <v>0.9734720896058733</v>
       </c>
       <c r="E7">
-        <v>1.665838657196192</v>
+        <v>1.196511197934441</v>
       </c>
       <c r="F7">
-        <v>0.4390838147412183</v>
+        <v>0.9637688609978038</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -540,19 +540,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2743026128287919</v>
+        <v>0.132963567562851</v>
       </c>
       <c r="C8">
-        <v>1.036516959001314</v>
+        <v>2.138324920930075</v>
       </c>
       <c r="D8">
-        <v>0.4003491539614928</v>
+        <v>0.8259166100031429</v>
       </c>
       <c r="E8">
-        <v>1.573552339554183</v>
+        <v>1.026378320844934</v>
       </c>
       <c r="F8">
-        <v>0.4408974122685105</v>
+        <v>0.909567292691197</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -560,19 +560,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.2891053098137399</v>
+        <v>0.1466030455207551</v>
       </c>
       <c r="C9">
-        <v>1.032452401692407</v>
+        <v>2.03602503889979</v>
       </c>
       <c r="D9">
-        <v>0.3674395108547019</v>
+        <v>0.724601001610287</v>
       </c>
       <c r="E9">
-        <v>1.490982521108483</v>
+        <v>0.9166994725327566</v>
       </c>
       <c r="F9">
-        <v>0.4326951805329323</v>
+        <v>0.8532870090012925</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -580,19 +580,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.3043551897399008</v>
+        <v>0.1589008988713915</v>
       </c>
       <c r="C10">
-        <v>1.018545034447592</v>
+        <v>1.9508981347477</v>
       </c>
       <c r="D10">
-        <v>0.3396986505902498</v>
+        <v>0.6506511164449928</v>
       </c>
       <c r="E10">
-        <v>1.410231993810338</v>
+        <v>0.8314719332581868</v>
       </c>
       <c r="F10">
-        <v>0.4142667408709824</v>
+        <v>0.7934771509553642</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -600,19 +600,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.3204505775166392</v>
+        <v>0.1698193221122817</v>
       </c>
       <c r="C11">
-        <v>0.9930220525922153</v>
+        <v>1.873841482122605</v>
       </c>
       <c r="D11">
-        <v>0.3153723667627464</v>
+        <v>0.5951104727357905</v>
       </c>
       <c r="E11">
-        <v>1.327909340504502</v>
+        <v>0.7588055548184793</v>
       </c>
       <c r="F11">
-        <v>0.3863396302670555</v>
+        <v>0.729026332791427</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -620,19 +620,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.3371303838231233</v>
+        <v>0.1791280036184286</v>
       </c>
       <c r="C12">
-        <v>0.9576453368281922</v>
+        <v>1.802349903139868</v>
       </c>
       <c r="D12">
-        <v>0.2900821938929754</v>
+        <v>0.5459532814071475</v>
       </c>
       <c r="E12">
-        <v>1.245169834634903</v>
+        <v>0.6907120416578949</v>
       </c>
       <c r="F12">
-        <v>0.3528404210778163</v>
+        <v>0.664068287388867</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -640,19 +640,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.3537331874997481</v>
+        <v>0.1864043573384206</v>
       </c>
       <c r="C13">
-        <v>0.9159987907166597</v>
+        <v>1.738259644852914</v>
       </c>
       <c r="D13">
-        <v>0.2648581066462651</v>
+        <v>0.5026121901701966</v>
       </c>
       <c r="E13">
-        <v>1.165052910341913</v>
+        <v>0.6355170639297657</v>
       </c>
       <c r="F13">
-        <v>0.3219662633238223</v>
+        <v>0.610984390167174</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h22table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h22table_rmse.xlsx
@@ -432,7 +432,7 @@
         <v>7.503595041642085</v>
       </c>
       <c r="F2">
-        <v>3.623603551526322</v>
+        <v>3.623603551526316</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,19 +440,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.04330537845084078</v>
+        <v>0.02493962133390019</v>
       </c>
       <c r="C3">
-        <v>4.216002959268104</v>
+        <v>7.320704723483376</v>
       </c>
       <c r="D3">
-        <v>2.822325633290527</v>
+        <v>4.900711122466809</v>
       </c>
       <c r="E3">
-        <v>3.621506955018647</v>
+        <v>6.28841661826902</v>
       </c>
       <c r="F3">
-        <v>1.962986054704515</v>
+        <v>3.408546298862663</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -460,19 +460,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.06432661435205604</v>
+        <v>0.02723252454337061</v>
       </c>
       <c r="C4">
-        <v>3.236123009648129</v>
+        <v>7.644125556773839</v>
       </c>
       <c r="D4">
-        <v>1.936161852654513</v>
+        <v>4.57345541433427</v>
       </c>
       <c r="E4">
-        <v>2.499735292981064</v>
+        <v>5.904686064552219</v>
       </c>
       <c r="F4">
-        <v>1.443384164069165</v>
+        <v>3.409453146221235</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -480,19 +480,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.08382566770074205</v>
+        <v>0.0280086182381046</v>
       </c>
       <c r="C5">
-        <v>2.748911452338489</v>
+        <v>8.227086962433605</v>
       </c>
       <c r="D5">
-        <v>1.471202837573126</v>
+        <v>4.403093331288137</v>
       </c>
       <c r="E5">
-        <v>1.867723762063303</v>
+        <v>5.589822036365232</v>
       </c>
       <c r="F5">
-        <v>1.205637388905871</v>
+        <v>3.608295070855055</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -500,19 +500,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1017552476511069</v>
+        <v>0.02827357386706751</v>
       </c>
       <c r="C6">
-        <v>2.459211027051773</v>
+        <v>8.850583525822248</v>
       </c>
       <c r="D6">
-        <v>1.180451180416699</v>
+        <v>4.248387655840446</v>
       </c>
       <c r="E6">
-        <v>1.464450084896894</v>
+        <v>5.270486206023575</v>
       </c>
       <c r="F6">
-        <v>1.059841699796638</v>
+        <v>3.814319871298338</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -520,19 +520,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.1180408049663676</v>
+        <v>0.0284180422016545</v>
       </c>
       <c r="C7">
-        <v>2.271584351432541</v>
+        <v>9.435542515187416</v>
       </c>
       <c r="D7">
-        <v>0.9734720896058733</v>
+        <v>4.043537843105856</v>
       </c>
       <c r="E7">
-        <v>1.196511197934441</v>
+        <v>4.969981533324328</v>
       </c>
       <c r="F7">
-        <v>0.9637688609978038</v>
+        <v>4.003233275059204</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -540,19 +540,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.132963567562851</v>
+        <v>0.0284029116522211</v>
       </c>
       <c r="C8">
-        <v>2.138324920930075</v>
+        <v>10.01021703608266</v>
       </c>
       <c r="D8">
-        <v>0.8259166100031429</v>
+        <v>3.86639300646651</v>
       </c>
       <c r="E8">
-        <v>1.026378320844934</v>
+        <v>4.804821592931268</v>
       </c>
       <c r="F8">
-        <v>0.909567292691197</v>
+        <v>4.257989943268654</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -560,19 +560,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.1466030455207551</v>
+        <v>0.02784141940426025</v>
       </c>
       <c r="C9">
-        <v>2.03602503889979</v>
+        <v>10.72098613670354</v>
       </c>
       <c r="D9">
-        <v>0.724601001610287</v>
+        <v>3.81549202219204</v>
       </c>
       <c r="E9">
-        <v>0.9166994725327566</v>
+        <v>4.82701447613722</v>
       </c>
       <c r="F9">
-        <v>0.8532870090012925</v>
+        <v>4.493106921256453</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -580,19 +580,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.1589008988713915</v>
+        <v>0.02649308832013229</v>
       </c>
       <c r="C10">
-        <v>1.9508981347477</v>
+        <v>11.70114497305925</v>
       </c>
       <c r="D10">
-        <v>0.6506511164449928</v>
+        <v>3.902491321716453</v>
       </c>
       <c r="E10">
-        <v>0.8314719332581868</v>
+        <v>4.987022878743031</v>
       </c>
       <c r="F10">
-        <v>0.7934771509553642</v>
+        <v>4.759136835885827</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -600,19 +600,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.1698193221122817</v>
+        <v>0.02544781303724758</v>
       </c>
       <c r="C11">
-        <v>1.873841482122605</v>
+        <v>12.50459085714627</v>
       </c>
       <c r="D11">
-        <v>0.5951104727357905</v>
+        <v>3.971314034490491</v>
       </c>
       <c r="E11">
-        <v>0.7588055548184793</v>
+        <v>5.063690335420875</v>
       </c>
       <c r="F11">
-        <v>0.729026332791427</v>
+        <v>4.864966488689402</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -620,19 +620,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.1791280036184286</v>
+        <v>0.02796996037317502</v>
       </c>
       <c r="C12">
-        <v>1.802349903139868</v>
+        <v>11.54278860834382</v>
       </c>
       <c r="D12">
-        <v>0.5459532814071475</v>
+        <v>3.496448334663521</v>
       </c>
       <c r="E12">
-        <v>0.6907120416578949</v>
+        <v>4.423526792553078</v>
       </c>
       <c r="F12">
-        <v>0.664068287388867</v>
+        <v>4.252892210042613</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -640,19 +640,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.1864043573384206</v>
+        <v>0.03685452948917179</v>
       </c>
       <c r="C13">
-        <v>1.738259644852914</v>
+        <v>8.791841233010954</v>
       </c>
       <c r="D13">
-        <v>0.5026121901701966</v>
+        <v>2.542132638721065</v>
       </c>
       <c r="E13">
-        <v>0.6355170639297657</v>
+        <v>3.214344383754337</v>
       </c>
       <c r="F13">
-        <v>0.610984390167174</v>
+        <v>3.090262015863773</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h22table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h22table_rmse.xlsx
@@ -432,7 +432,7 @@
         <v>7.503595041642085</v>
       </c>
       <c r="F2">
-        <v>3.623603551526316</v>
+        <v>3.623603551526322</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -452,7 +452,7 @@
         <v>6.28841661826902</v>
       </c>
       <c r="F3">
-        <v>3.408546298862663</v>
+        <v>3.408546298862667</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -472,7 +472,7 @@
         <v>5.904686064552219</v>
       </c>
       <c r="F4">
-        <v>3.409453146221235</v>
+        <v>3.409453146221236</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -492,7 +492,7 @@
         <v>5.589822036365232</v>
       </c>
       <c r="F5">
-        <v>3.608295070855055</v>
+        <v>3.608295070855054</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -532,7 +532,7 @@
         <v>4.969981533324328</v>
       </c>
       <c r="F7">
-        <v>4.003233275059204</v>
+        <v>4.003233275059203</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -552,7 +552,7 @@
         <v>4.804821592931268</v>
       </c>
       <c r="F8">
-        <v>4.257989943268654</v>
+        <v>4.257989943268652</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -572,7 +572,7 @@
         <v>4.82701447613722</v>
       </c>
       <c r="F9">
-        <v>4.493106921256453</v>
+        <v>4.493106921256452</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -592,7 +592,7 @@
         <v>4.987022878743031</v>
       </c>
       <c r="F10">
-        <v>4.759136835885827</v>
+        <v>4.759136835885826</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -612,7 +612,7 @@
         <v>5.063690335420875</v>
       </c>
       <c r="F11">
-        <v>4.864966488689402</v>
+        <v>4.864966488689399</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -632,7 +632,7 @@
         <v>4.423526792553078</v>
       </c>
       <c r="F12">
-        <v>4.252892210042613</v>
+        <v>4.252892210042611</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -652,7 +652,7 @@
         <v>3.214344383754337</v>
       </c>
       <c r="F13">
-        <v>3.090262015863773</v>
+        <v>3.090262015863772</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h22table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h22table_rmse.xlsx
@@ -432,7 +432,7 @@
         <v>7.503595041642085</v>
       </c>
       <c r="F2">
-        <v>3.623603551526322</v>
+        <v>3.623603551526316</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -452,7 +452,7 @@
         <v>6.28841661826902</v>
       </c>
       <c r="F3">
-        <v>3.408546298862667</v>
+        <v>3.408546298862663</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -472,7 +472,7 @@
         <v>5.904686064552219</v>
       </c>
       <c r="F4">
-        <v>3.409453146221236</v>
+        <v>3.409453146221235</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -492,7 +492,7 @@
         <v>5.589822036365232</v>
       </c>
       <c r="F5">
-        <v>3.608295070855054</v>
+        <v>3.608295070855055</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -532,7 +532,7 @@
         <v>4.969981533324328</v>
       </c>
       <c r="F7">
-        <v>4.003233275059203</v>
+        <v>4.003233275059204</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -552,7 +552,7 @@
         <v>4.804821592931268</v>
       </c>
       <c r="F8">
-        <v>4.257989943268652</v>
+        <v>4.257989943268653</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -572,7 +572,7 @@
         <v>4.82701447613722</v>
       </c>
       <c r="F9">
-        <v>4.493106921256452</v>
+        <v>4.493106921256453</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -592,7 +592,7 @@
         <v>4.987022878743031</v>
       </c>
       <c r="F10">
-        <v>4.759136835885826</v>
+        <v>4.759136835885828</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -612,7 +612,7 @@
         <v>5.063690335420875</v>
       </c>
       <c r="F11">
-        <v>4.864966488689399</v>
+        <v>4.864966488689402</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -632,7 +632,7 @@
         <v>4.423526792553078</v>
       </c>
       <c r="F12">
-        <v>4.252892210042611</v>
+        <v>4.252892210042614</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -652,7 +652,7 @@
         <v>3.214344383754337</v>
       </c>
       <c r="F13">
-        <v>3.090262015863772</v>
+        <v>3.090262015863773</v>
       </c>
     </row>
   </sheetData>
